--- a/xlsx/FR/policy_FR.xlsx
+++ b/xlsx/FR/policy_FR.xlsx
@@ -12,30 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">National tax on fossil fuels (+$0.40/gallon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tax on flying (that increases ticket prices by 20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financing clean energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsidies for low-carbon technologies (renewables, CCS...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ban of polluting vehicles in dense areas, like city centers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly oppose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat oppose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indifferent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly support</t>
   </si>
 </sst>
 </file>
@@ -380,61 +389,111 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.240283999816493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.141889925443307</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0931432252049244</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0516008701705503</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0971679319850765</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.259384244058929</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.219741635021936</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.12231693952401</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.093260596489176</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.139754568109459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.20010287674713</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.180433364691347</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.315902613298154</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.280003650233242</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.173439031920492</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.231557982388566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.311207668136511</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.365006305826821</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.423633929768156</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.39266369954193</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0686708969888817</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1467274067069</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.103630916146091</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.151500953338875</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.196974768443043</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/policy_FR.xlsx
+++ b/xlsx/FR/policy_FR.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">National tax on fossil fuels (+$0.40/gallon)</t>
+    <t xml:space="preserve">National tax on fossil fuels (+0.10 €/L)</t>
   </si>
   <si>
     <t xml:space="preserve">A tax on flying (that increases ticket prices by 20%)</t>
@@ -401,19 +401,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.240283999816493</v>
+        <v>0.237730902677425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.141889925443307</v>
+        <v>0.153819903499807</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0931432252049244</v>
+        <v>0.0939044138233204</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0516008701705503</v>
+        <v>0.0551517640342578</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0971679319850765</v>
+        <v>0.0899026322507025</v>
       </c>
     </row>
     <row r="3">
@@ -421,19 +421,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.259384244058929</v>
+        <v>0.26452331705635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.219741635021936</v>
+        <v>0.201463150976169</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12231693952401</v>
+        <v>0.121798723824283</v>
       </c>
       <c r="E3" t="n">
-        <v>0.093260596489176</v>
+        <v>0.0988033979702068</v>
       </c>
       <c r="F3" t="n">
-        <v>0.139754568109459</v>
+        <v>0.150393098733224</v>
       </c>
     </row>
     <row r="4">
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.20010287674713</v>
+        <v>0.180023601349779</v>
       </c>
       <c r="C4" t="n">
-        <v>0.180433364691347</v>
+        <v>0.185260611985313</v>
       </c>
       <c r="D4" t="n">
-        <v>0.315902613298154</v>
+        <v>0.29396776608824</v>
       </c>
       <c r="E4" t="n">
-        <v>0.280003650233242</v>
+        <v>0.266971147472354</v>
       </c>
       <c r="F4" t="n">
-        <v>0.173439031920492</v>
+        <v>0.179080972886033</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.231557982388566</v>
+        <v>0.243563107835398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.311207668136511</v>
+        <v>0.307232911077801</v>
       </c>
       <c r="D5" t="n">
-        <v>0.365006305826821</v>
+        <v>0.373016432702901</v>
       </c>
       <c r="E5" t="n">
-        <v>0.423633929768156</v>
+        <v>0.422332432930315</v>
       </c>
       <c r="F5" t="n">
-        <v>0.39266369954193</v>
+        <v>0.385972756643559</v>
       </c>
     </row>
     <row r="6">
@@ -481,19 +481,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0686708969888817</v>
+        <v>0.0741590710810477</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1467274067069</v>
+        <v>0.15222342246091</v>
       </c>
       <c r="D6" t="n">
-        <v>0.103630916146091</v>
+        <v>0.117312663561255</v>
       </c>
       <c r="E6" t="n">
-        <v>0.151500953338875</v>
+        <v>0.156741257592866</v>
       </c>
       <c r="F6" t="n">
-        <v>0.196974768443043</v>
+        <v>0.194650539486482</v>
       </c>
     </row>
   </sheetData>
